--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/StructureDefinition-jp-humanname.xlsx
@@ -396,15 +396,15 @@
     <t>HumanName.text</t>
   </si>
   <si>
-    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.
-アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -864,7 +864,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
